--- a/Bug-reports/In xls/Баг-репорт 3.xlsx
+++ b/Bug-reports/In xls/Баг-репорт 3.xlsx
@@ -5,22 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logvi\CV\QA-work\Bug-reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logvi\CV\QA-work\Bug-reports\In xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11D1BC5-454B-4ADB-9AF7-DE890F2E55EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8869CD0-3FBC-45A4-ADD9-F2919A7A66B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="240" windowWidth="29040" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Список ошибок" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Список ошибок" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$21</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="164">
   <si>
     <t>Ошибка 1</t>
   </si>
@@ -1011,11 +1015,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1102,7 +1114,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1127,8 +1139,20 @@
         <bgColor rgb="FFFFE599"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1164,44 +1188,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1209,108 +1255,114 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Helvetica Neue"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Helvetica Neue"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1859,6 +1911,52 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1873,30 +1971,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E4CF71A2-7C38-4B77-A9D2-B630939D3C09}" name="Table1" displayName="Table1" ref="A2:U13" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E4CF71A2-7C38-4B77-A9D2-B630939D3C09}" name="Table1" displayName="Table1" ref="A2:U13" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A2:U13" xr:uid="{E4CF71A2-7C38-4B77-A9D2-B630939D3C09}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{65D06A2C-DB5C-4F92-8ECC-C7D0172443DF}" name="Column1" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{F1330209-D246-4A49-86C3-DA8342496607}" name="Ошибка 1" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{65D06A2C-DB5C-4F92-8ECC-C7D0172443DF}" name="Column1" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{F1330209-D246-4A49-86C3-DA8342496607}" name="Ошибка 1" dataDxfId="14"/>
     <tableColumn id="3" xr3:uid="{4C32902A-AFE5-4101-B87A-C0E75EB96B2B}" name="Ошибка 2"/>
     <tableColumn id="4" xr3:uid="{7F0D77F6-5D4A-4341-B409-626C7EFFBE4B}" name="Ошибка 3"/>
     <tableColumn id="5" xr3:uid="{511BA453-48A1-4C2E-88EC-C20374F648D1}" name="Ошибка 4"/>
-    <tableColumn id="6" xr3:uid="{7D911676-B806-444C-AD35-50DF39B5A3EF}" name="Ошибка 5" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{726885DD-0BD6-488A-A27E-432C7FFF9490}" name="Ошибка 6" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{8AC05EA0-82EF-4A6E-8792-84EC1E6C6899}" name="Ошибка 7" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{B74869F3-AC51-4EC7-ADBF-CED9210FE7E6}" name="Ошибка 8" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{196E942C-65AD-445B-92CF-8C408C57A8F5}" name="Ошибка 9" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{ED9363C4-660C-4F5B-96FF-3BF79DEB1A69}" name="Ошибка 10" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{7D911676-B806-444C-AD35-50DF39B5A3EF}" name="Ошибка 5" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{726885DD-0BD6-488A-A27E-432C7FFF9490}" name="Ошибка 6" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{8AC05EA0-82EF-4A6E-8792-84EC1E6C6899}" name="Ошибка 7" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{B74869F3-AC51-4EC7-ADBF-CED9210FE7E6}" name="Ошибка 8" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{196E942C-65AD-445B-92CF-8C408C57A8F5}" name="Ошибка 9" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{ED9363C4-660C-4F5B-96FF-3BF79DEB1A69}" name="Ошибка 10" dataDxfId="8"/>
     <tableColumn id="12" xr3:uid="{7F8C00AC-7259-477E-BFEE-7762B78417C7}" name="Ошибка 11"/>
-    <tableColumn id="13" xr3:uid="{2DC2988E-2B9C-406C-800B-130D6223114A}" name="Ошибка 12" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{699F7F5A-5268-4E8C-9D8D-06F8556ED063}" name="Ошибка 13" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{77D34FD9-8EE9-4863-8F09-7A71A0AA2178}" name="Ошибка 14" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{D17D022D-C95F-4B5D-9DCD-FCD4E75992E4}" name="Ошибка 15" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{013B93C0-4C49-4281-8E83-37E73DAB85D5}" name="Ошибка 16" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{4B16A2F8-07DD-40F8-BEDA-943B3CF108BE}" name="Ошибка 17" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{E7AE6A79-B840-475E-9377-7BA5374023FA}" name="Ошибка 18" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{2DC2988E-2B9C-406C-800B-130D6223114A}" name="Ошибка 12" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{699F7F5A-5268-4E8C-9D8D-06F8556ED063}" name="Ошибка 13" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{77D34FD9-8EE9-4863-8F09-7A71A0AA2178}" name="Ошибка 14" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{D17D022D-C95F-4B5D-9DCD-FCD4E75992E4}" name="Ошибка 15" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{013B93C0-4C49-4281-8E83-37E73DAB85D5}" name="Ошибка 16" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{4B16A2F8-07DD-40F8-BEDA-943B3CF108BE}" name="Ошибка 17" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{E7AE6A79-B840-475E-9377-7BA5374023FA}" name="Ошибка 18" dataDxfId="1"/>
     <tableColumn id="20" xr3:uid="{C03FB6EB-FE48-4107-8B90-1D7BE064138C}" name="Ошибка 19"/>
-    <tableColumn id="21" xr3:uid="{5BD91C62-6842-481F-84AE-7109B111D763}" name="Ошибка 20" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{5BD91C62-6842-481F-84AE-7109B111D763}" name="Ошибка 20" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2099,14 +2197,737 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E19DBFF-48CB-4F56-817D-76EE44AC0C6E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="48">
+      <c r="A1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="204">
+      <c r="A2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="34"/>
+    </row>
+    <row r="3" spans="1:11" ht="63.75">
+      <c r="A3" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="38"/>
+    </row>
+    <row r="4" spans="1:11" ht="96">
+      <c r="A4" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="38"/>
+    </row>
+    <row r="5" spans="1:11" ht="96">
+      <c r="A5" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="39"/>
+    </row>
+    <row r="6" spans="1:11" ht="140.25">
+      <c r="A6" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="K6" s="39"/>
+    </row>
+    <row r="7" spans="1:11" ht="96">
+      <c r="A7" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="39"/>
+    </row>
+    <row r="8" spans="1:11" ht="132">
+      <c r="A8" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="39"/>
+    </row>
+    <row r="9" spans="1:11" ht="72">
+      <c r="A9" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" s="39"/>
+    </row>
+    <row r="10" spans="1:11" ht="96">
+      <c r="A10" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="34"/>
+    </row>
+    <row r="11" spans="1:11" ht="108">
+      <c r="A11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K11" s="39"/>
+    </row>
+    <row r="12" spans="1:11" ht="76.5">
+      <c r="A12" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="K12" s="42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="132">
+      <c r="A13" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="180">
+      <c r="A14" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="96">
+      <c r="A15" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" s="43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="60">
+      <c r="A16" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" s="39"/>
+    </row>
+    <row r="17" spans="1:11" ht="153">
+      <c r="A17" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" s="39"/>
+    </row>
+    <row r="18" spans="1:11" ht="48">
+      <c r="A18" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" s="39"/>
+    </row>
+    <row r="19" spans="1:11" ht="96">
+      <c r="A19" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" s="44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="132">
+      <c r="A20" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" s="39"/>
+    </row>
+    <row r="21" spans="1:11" ht="120">
+      <c r="A21" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K21" s="45"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{E1426599-8339-4306-AABF-57CF39BEE197}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{4DF3C622-AF49-41B7-89BF-228506AE166C}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{9CC82844-ED42-4B67-9342-76896DDFAA97}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{2211D6CF-AD24-46CE-A821-92D0A9D3DF80}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{B7C5398C-937F-4BF7-A1EB-D303B80F45EF}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{0BE28F43-2983-4424-A3BC-8FF1528F4465}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{2DBF3590-49C8-4B6F-9215-D655DC700E99}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{B10C12CD-BF4F-4D18-A64D-1CCF70971191}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{D8EF43D3-A15F-417F-A970-30FCA482025B}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{610153FC-EEA6-456B-9DF8-445820B53F86}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{96733D36-B0D1-44E1-88E3-9E427704086C}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{F48B4C38-376F-41C9-B000-7D14C0AFBE66}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{CE7AD1A4-66F0-48A5-92CD-311B2B175A18}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{BE1935EA-68C4-4D2B-80B4-92549A833332}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{A72AB61A-C736-47B0-974C-8EEB8E1C75F1}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{380A5DD2-2F8F-43E6-B852-215164021467}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{5F24A71A-5108-499E-B9D5-55554E8DADAC}"/>
+    <hyperlink ref="G19" r:id="rId18" xr:uid="{4C116381-D476-4B1B-94CA-1E4112DFAF1A}"/>
+    <hyperlink ref="G20" r:id="rId19" xr:uid="{39999A6B-CED2-4858-B3F9-107FC8A10820}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{B97E04FA-FE5D-4967-BEB3-A273331A51CA}"/>
+    <hyperlink ref="K19" r:id="rId21" xr:uid="{3318C427-6DFB-4561-9790-BC84363539D7}"/>
+    <hyperlink ref="K15" r:id="rId22" xr:uid="{5FD1B2B7-20A6-41C1-A029-0A656FCF4C7D}"/>
+    <hyperlink ref="K13" r:id="rId23" xr:uid="{547A3B4A-0A47-4364-90EF-4651BE531769}"/>
+  </hyperlinks>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId24"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="11" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
@@ -3043,8 +3864,9 @@
     <hyperlink ref="S13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="81" orientation="portrait" r:id="rId24"/>
   <tableParts count="1">
-    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>